--- a/assets/Project_CodeNet_statistics.xlsx
+++ b/assets/Project_CodeNet_statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6924B658-EB66-4583-AA00-BC94860889D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589E745-19C3-4C22-840C-5F92F8395EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19965" yWindow="0" windowWidth="16778" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20813" yWindow="390" windowWidth="16777" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="langugage stats" sheetId="1" r:id="rId1"/>
@@ -3728,7 +3728,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Submsissions per language</a:t>
+            <a:t>Submissions per language</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -7911,7 +7911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K25" zoomScale="132" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -8788,7 +8788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
@@ -8912,7 +8912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="69" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="69" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
